--- a/CA2-reports.xlsx
+++ b/CA2-reports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x17131162\Documents\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E09770F-E610-41F7-85E6-F7B1892B08D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5B707B-EAD1-434F-89B8-3FB0F62AB72B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F985AE3D-89F6-4A3C-9ABD-AE5CABD9244B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{F985AE3D-89F6-4A3C-9ABD-AE5CABD9244B}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="195">
   <si>
     <t>online_store</t>
   </si>
@@ -3233,6 +3233,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="554519552"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3291,6 +3292,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="549348144"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
@@ -3346,6 +3348,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="554518568"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7294,7 +7297,7 @@
   <dimension ref="A2:R39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9296,8 +9299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C38DF9-AA47-4525-8B10-B69F82823E1E}">
   <dimension ref="A2:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
